--- a/Softtech2/ACME_Vendor_OUT.xlsx
+++ b/Softtech2/ACME_Vendor_OUT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogac\_dev\UiPath\Project\Softtech2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogac\_dev\Mulakat\Sofftech_RPA_Assignments\Softtech2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C17C109-9BE5-4B11-8BB4-4E1A8FD78291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA942AD-4DB9-4BE7-8561-4D71E1EB70A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{25008106-7FF3-4FEA-BBBE-9E61E819B9DC}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{25008106-7FF3-4FEA-BBBE-9E61E819B9DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Vendor</t>
   </si>
@@ -449,11 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CD5C0C-7BC1-4A92-A88A-607C4D6B9ED7}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -474,13 +481,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -491,52 +498,69 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
